--- a/botCode/workWithExcelFile/excelDatabase/8class/М-8-1-1, Ф-8-1.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/8class/М-8-1-1, Ф-8-1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>ФИО</t>
   </si>
@@ -44,10 +44,22 @@
     <t>Учитель</t>
   </si>
   <si>
-    <t>Кабинет</t>
+    <t>Борисов Алексей Андреевич</t>
   </si>
   <si>
-    <t>Борисов Алексей Андреевич</t>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф-8-1 </t>
+  </si>
+  <si>
+    <t>Рязанский</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>Вагабов Андрей Алексеевич</t>
   </si>
   <si>
     <t>Литература</t>
@@ -57,9 +69,6 @@
   </si>
   <si>
     <t>Калинина</t>
-  </si>
-  <si>
-    <t>Вагабов Андрей Алексеевич</t>
   </si>
   <si>
     <t>Коновалов Даниил Дмитриевич</t>
@@ -74,6 +83,15 @@
     <t>Павлов Иван Максимович</t>
   </si>
   <si>
+    <t>Урок для практических занятий (классрум на время)</t>
+  </si>
+  <si>
+    <t>Classroom+Zoom</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
     <t>Редько Михаил Дмитриевич</t>
   </si>
   <si>
@@ -83,31 +101,40 @@
     <t>А-8-1,2</t>
   </si>
   <si>
-    <t>202/302/303/504/505</t>
-  </si>
-  <si>
     <t>Сторожук Анастасия Сергеевна</t>
-  </si>
-  <si>
-    <t>физ-ра</t>
-  </si>
-  <si>
-    <t>спорт.зал</t>
   </si>
   <si>
     <t>Чуйкин Владимир Андреевич</t>
   </si>
   <si>
-    <t>Геометрия</t>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>физика</t>
   </si>
   <si>
     <t>Ф-8-1</t>
   </si>
   <si>
-    <t>Рязанский</t>
+    <t>Тимошенко</t>
   </si>
   <si>
-    <t>Информатика</t>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>геометрия</t>
+  </si>
+  <si>
+    <t>алгебра</t>
+  </si>
+  <si>
+    <t>Щербина</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>информатика</t>
   </si>
   <si>
     <t>М-8-1-1</t>
@@ -116,28 +143,34 @@
     <t>Дятлов</t>
   </si>
   <si>
-    <t>информатика</t>
+    <t>Пятница</t>
   </si>
   <si>
-    <t>Вторник</t>
+    <t>Спецмат</t>
   </si>
   <si>
-    <t>физика</t>
+    <t>химия</t>
   </si>
   <si>
-    <t>Тимошенко</t>
+    <t>Поболелова</t>
   </si>
   <si>
-    <t>алгебра</t>
+    <t>Английский язык</t>
   </si>
   <si>
-    <t>Щербина</t>
+    <t>Суббота</t>
   </si>
   <si>
-    <t>География</t>
+    <t>МХК</t>
   </si>
   <si>
-    <t>геометрия</t>
+    <t>Хамидова</t>
+  </si>
+  <si>
+    <t>история</t>
+  </si>
+  <si>
+    <t>Казаков</t>
   </si>
   <si>
     <t>биология</t>
@@ -146,85 +179,20 @@
     <t>Смолянова</t>
   </si>
   <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>ОКНО</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>Панькина/Щербина</t>
-  </si>
-  <si>
-    <t>Панькина</t>
-  </si>
-  <si>
-    <t>химия</t>
-  </si>
-  <si>
-    <t>Поболелова</t>
-  </si>
-  <si>
-    <t>Суббота</t>
-  </si>
-  <si>
-    <t>история</t>
-  </si>
-  <si>
-    <t>Казаков</t>
-  </si>
-  <si>
     <t>общага</t>
   </si>
   <si>
-    <t>МХК</t>
+    <t>География</t>
   </si>
   <si>
-    <t>Хамидова</t>
-  </si>
-  <si>
-    <t>все</t>
-  </si>
-  <si>
-    <t>Английский язык по группам</t>
-  </si>
-  <si>
-    <t>Демин М.С. (каб.505)</t>
-  </si>
-  <si>
-    <t>Ширяева В.А. (каб.202)</t>
-  </si>
-  <si>
-    <t>Будникова О.С. (каб.504)</t>
-  </si>
-  <si>
-    <t>Штойк М.С. (каб.302)</t>
-  </si>
-  <si>
-    <t>Напольских М.Р. (каб.303)</t>
-  </si>
-  <si>
-    <t>5 урок</t>
-  </si>
-  <si>
-    <t>7 урок</t>
+    <t>Корнилова</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d\.m"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,28 +202,55 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,12 +259,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -330,8 +337,77 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -353,56 +429,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -683,33 +811,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H1000"/>
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="A1:I993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
+    <col min="5" max="6" width="27" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
-    <col min="9" max="26" width="7.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="2" customWidth="1"/>
+    <col min="10" max="26" width="7.625" style="2" customWidth="1"/>
     <col min="27" max="16384" width="12.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4"/>
@@ -719,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -730,1053 +858,896 @@
       <c r="H3" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11"/>
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="10">
-        <v>205</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10">
-        <v>205</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="10">
-        <v>205</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="10">
-        <v>205</v>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="17"/>
       <c r="H10" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="10">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="10">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="10">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="1"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="11"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="10">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="10">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>3</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="10">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="10">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>7</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="10">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>8</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="10">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="4"/>
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="11"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>1</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="10">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="10">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>3</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="10">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>4</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>5</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="10">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>6</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="10">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>7</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="10"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>8</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="10">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="4"/>
       <c r="D36" s="1"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>1</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="10">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="10">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>3</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="10">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>4</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="10">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>5</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="10">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>6</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>7</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>8</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>9</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>1</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C51" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="10">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="E51" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>2</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>3</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>4</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="31">
+        <v>5</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="31">
+        <v>6</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="31">
         <v>7</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>1</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>2</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>3</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="11">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>4</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>5</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="11">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>6</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="11">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>7</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="11">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="36"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
         <v>8</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="C57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="18">
-        <v>43838</v>
-      </c>
-      <c r="D60" s="19">
-        <v>43869</v>
-      </c>
-      <c r="E60" s="18">
-        <v>43898</v>
-      </c>
-      <c r="F60" s="19">
-        <v>43929</v>
-      </c>
-      <c r="G60" s="19">
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="18">
-        <v>43838</v>
-      </c>
-      <c r="D63" s="19">
-        <v>43869</v>
-      </c>
-      <c r="E63" s="18">
-        <v>43898</v>
-      </c>
-      <c r="F63" s="19">
-        <v>43929</v>
-      </c>
-      <c r="G63" s="19">
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="18">
-        <v>43838</v>
-      </c>
-      <c r="D66" s="19">
-        <v>43869</v>
-      </c>
-      <c r="E66" s="18">
-        <v>43898</v>
-      </c>
-      <c r="F66" s="19">
-        <v>43929</v>
-      </c>
-      <c r="G66" s="19">
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="C59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="C60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="C61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="C62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="C63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="C64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="C65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="C66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="C67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="C68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="C69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="C70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="C71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="C72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="C75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="C76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="C80" s="3"/>
       <c r="E80" s="3"/>
@@ -6346,53 +6317,21 @@
       <c r="C993" s="3"/>
       <c r="E993" s="3"/>
     </row>
-    <row r="994" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A994" s="1"/>
-      <c r="C994" s="3"/>
-      <c r="E994" s="3"/>
-    </row>
-    <row r="995" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A995" s="1"/>
-      <c r="C995" s="3"/>
-      <c r="E995" s="3"/>
-    </row>
-    <row r="996" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="1"/>
-      <c r="C996" s="3"/>
-      <c r="E996" s="3"/>
-    </row>
-    <row r="997" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A997" s="1"/>
-      <c r="C997" s="3"/>
-      <c r="E997" s="3"/>
-    </row>
-    <row r="998" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A998" s="1"/>
-      <c r="C998" s="3"/>
-      <c r="E998" s="3"/>
-    </row>
-    <row r="999" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="1"/>
-      <c r="C999" s="3"/>
-      <c r="E999" s="3"/>
-    </row>
-    <row r="1000" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
-      <c r="C1000" s="3"/>
-      <c r="E1000" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A64:G64"/>
+  <mergeCells count="11">
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A49:E49"/>
     <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A15:E15"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/botCode/workWithExcelFile/excelDatabase/8class/М-8-1-1, Ф-8-1.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/8class/М-8-1-1, Ф-8-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М-8-1-1, Ф-8-1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
   <si>
     <t>ФИО</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Чуйкин Владимир Андреевич</t>
+  </si>
+  <si>
+    <t>Клещев Даниил Олегович</t>
   </si>
   <si>
     <t>Вторник</t>
@@ -250,7 +253,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -466,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -814,8 +826,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:I993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1003,6 +1015,9 @@
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="17"/>
+      <c r="H11" s="18" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1034,7 +1049,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1061,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>10</v>
@@ -1079,13 +1094,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>10</v>
@@ -1105,7 +1120,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,15 +1128,15 @@
         <v>4</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="17"/>
@@ -1131,15 +1146,15 @@
         <v>5</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="17"/>
@@ -1149,13 +1164,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>10</v>
@@ -1192,7 +1207,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1221,7 +1236,7 @@
       <c r="B28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -1239,8 +1254,8 @@
       <c r="B29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>29</v>
+      <c r="C29" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>9</v>
@@ -1255,13 +1270,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="18" t="s">
         <v>37</v>
       </c>
+      <c r="C30" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="D30" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>10</v>
@@ -1273,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="18" t="s">
         <v>37</v>
       </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="D31" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>10</v>
@@ -1291,13 +1306,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="18" t="s">
         <v>29</v>
       </c>
+      <c r="C32" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="D32" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>10</v>
@@ -1317,7 +1332,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,7 +1362,7 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1388,13 +1403,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>10</v>
@@ -1405,13 +1420,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>10</v>
@@ -1431,20 +1446,20 @@
         <v>20</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>5</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="21"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="13" t="s">
         <v>10</v>
       </c>
@@ -1454,20 +1469,20 @@
         <v>6</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
+      <c r="A45" s="23">
         <v>7</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -1479,26 +1494,26 @@
         <v>20</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
+      <c r="A46" s="24">
         <v>8</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
+      <c r="A47" s="24">
         <v>9</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -1508,39 +1523,39 @@
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="28"/>
+      <c r="A49" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29" t="s">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="30"/>
+      <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>1</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>10</v>
@@ -1551,13 +1566,13 @@
         <v>2</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>10</v>
@@ -1568,13 +1583,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>10</v>
@@ -1584,63 +1599,63 @@
       <c r="A54" s="5">
         <v>4</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>48</v>
+      <c r="B54" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31">
+      <c r="A55" s="32">
         <v>5</v>
       </c>
-      <c r="B55" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="32" t="s">
+      <c r="B55" s="33" t="s">
         <v>53</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31">
+      <c r="A56" s="32">
         <v>6</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31">
+      <c r="A57" s="32">
         <v>7</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="36"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="37"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>8</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
